--- a/data/trans_camb/P29_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P29_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,96</t>
+          <t>-24,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-21,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>-35,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>7,49</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-9,59</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-7,41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-12,19</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,68; 8,59</t>
+          <t>-58,3; -1,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 17,04</t>
+          <t>-55,25; 1,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 30,02</t>
+          <t>-64,43; -13,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 14,27</t>
+          <t>-14,36; 23,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 14,7</t>
+          <t>-13,28; 26,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 11,68</t>
+          <t>-12,35; 35,56</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-31,77; 6,75</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-29,04; 10,04</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-33,32; 7,84</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-22,22%</t>
+          <t>-51,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>-44,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45,0%</t>
+          <t>-74,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>27,92%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-26,23%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-20,27%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-33,34%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,59; 33,41</t>
+          <t>-84,06; 0,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 61,15</t>
+          <t>-84,01; 4,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 161,91</t>
+          <t>-94,94; -39,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,19; 79,51</t>
+          <t>-41,97; 152,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 56,73</t>
+          <t>-38,53; 159,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,96; 49,61</t>
+          <t>-40,38; 227,75</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-62,27; 25,63</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-58,94; 37,29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-68,88; 33,38</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>8,14</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 11,23</t>
+          <t>-6,94; 14,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 12,84</t>
+          <t>-4,47; 20,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 10,13</t>
+          <t>-16,81; 4,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 11,78</t>
+          <t>-7,23; 8,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 8,89</t>
+          <t>-8,84; 7,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 10,65</t>
+          <t>-0,84; 16,63</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,95; 9,58</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 12,37</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 8,74</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>-22,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>43,55%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12,25%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19,75%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 45,25</t>
+          <t>-20,98; 66,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 49,41</t>
+          <t>-15,06; 93,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 63,97</t>
+          <t>-51,2; 22,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 70,24</t>
+          <t>-31,74; 59,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 40,92</t>
+          <t>-38,75; 49,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 50,24</t>
+          <t>-3,23; 108,84</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-15,57; 50,31</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-9,49; 63,23</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-21,32; 43,76</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 9,63</t>
+          <t>-11,59; 11,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 9,94</t>
+          <t>-11,71; 10,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 8,58</t>
+          <t>-9,87; 12,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 10,63</t>
+          <t>-4,1; 8,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 7,31</t>
+          <t>-4,69; 7,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 8,08</t>
+          <t>-3,61; 9,85</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 8,14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,33; 6,37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 8,97</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>-1,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>-3,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>28,01%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>14,47%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 46,49</t>
+          <t>-34,03; 53,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 48,92</t>
+          <t>-35,89; 50,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 110,98</t>
+          <t>-31,18; 59,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 130,99</t>
+          <t>-36,64; 161,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 48,66</t>
+          <t>-39,56; 137,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 55,42</t>
+          <t>-30,38; 173,79</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-22,92; 60,41</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-31,01; 48,3</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-19,75; 67,52</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 6,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 8,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 10,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 9,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 6,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 7,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 24,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 34,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,66; 67,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 58,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 32,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 36,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-8,04</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6,98</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-10,7; 6,87</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-9,12; 9,52</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-17,6; -0,04</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 7,39</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,49; 6,81</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 14,06</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 5,34</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 7,03</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 5,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-5,17%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-26,75%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>13,46%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9,66%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>44,45%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-30,76; 26,74</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-26,58; 36,29</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-48,78; -0,09</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-16,07; 57,19</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-20,51; 51,53</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 105,2</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-19,41; 26,78</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-15,39; 34,5</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-23,68; 25,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
